--- a/source_tables/thickness.xlsx
+++ b/source_tables/thickness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.izmailov\PycharmProjects\test_pyQt5\source_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.izmailov\PycharmProjects\FitForService\source_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6FE73D-165F-4E6B-831B-47FE3BBA5714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AC7FE-0DB6-4E6B-8CF6-DA1B5830803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{97D05CE3-F562-4194-B4A5-7626D2F17E55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{97D05CE3-F562-4194-B4A5-7626D2F17E55}"/>
   </bookViews>
   <sheets>
     <sheet name="wall thickness" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="155">
   <si>
     <t>nominal pipe size</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>22.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>user defined</t>
   </si>
 </sst>
 </file>
@@ -546,11 +552,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -865,18 +874,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B384EB2-0104-4BB6-9A58-02FAF631F3A1}">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C344" sqref="C344:C405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -904,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -918,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -932,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -946,7 +956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -960,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -974,7 +984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -988,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1058,7 +1068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1114,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1170,7 +1180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -1422,7 +1432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -1450,7 +1460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1464,7 +1474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1492,7 +1502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1562,7 +1572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>22</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>27</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
@@ -1688,7 +1698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>32</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
@@ -1800,7 +1810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>15</v>
       </c>
@@ -1814,7 +1824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +1838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>19</v>
       </c>
@@ -1856,7 +1866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>20</v>
       </c>
@@ -1870,7 +1880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>25</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>27</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>32</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2076,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -2136,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -2150,7 +2160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -2234,7 +2244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>20</v>
       </c>
@@ -2262,7 +2272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>22</v>
       </c>
@@ -2276,7 +2286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>24</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>25</v>
       </c>
@@ -2304,7 +2314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>27</v>
       </c>
@@ -2318,7 +2328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>28</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>32</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>4</v>
       </c>
@@ -2388,7 +2398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -2416,7 +2426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>15</v>
       </c>
@@ -2486,7 +2496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>18</v>
       </c>
@@ -2514,7 +2524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>19</v>
       </c>
@@ -2528,7 +2538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>20</v>
       </c>
@@ -2542,7 +2552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>24</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>27</v>
       </c>
@@ -2598,7 +2608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>28</v>
       </c>
@@ -2612,7 +2622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>30</v>
       </c>
@@ -2626,7 +2636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>32</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>75</v>
       </c>
@@ -2654,7 +2664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>77</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>34</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>78</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>79</v>
       </c>
@@ -2710,7 +2720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>80</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>19</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>22</v>
       </c>
@@ -2766,7 +2776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>24</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>25</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>27</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>28</v>
       </c>
@@ -2822,7 +2832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>30</v>
       </c>
@@ -2836,7 +2846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>32</v>
       </c>
@@ -2850,7 +2860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>75</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>77</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>34</v>
       </c>
@@ -2892,7 +2902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>78</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>79</v>
       </c>
@@ -2920,7 +2930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>80</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2972,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>10</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>11</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>12</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>15</v>
       </c>
@@ -3046,7 +3056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>19</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>20</v>
       </c>
@@ -3074,7 +3084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>22</v>
       </c>
@@ -3088,7 +3098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>24</v>
       </c>
@@ -3102,7 +3112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>25</v>
       </c>
@@ -3116,7 +3126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>27</v>
       </c>
@@ -3130,7 +3140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>28</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>30</v>
       </c>
@@ -3158,7 +3168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>32</v>
       </c>
@@ -3172,7 +3182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>77</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>34</v>
       </c>
@@ -3200,7 +3210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>78</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>79</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>80</v>
       </c>
@@ -3242,7 +3252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>9</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>11</v>
       </c>
@@ -3312,7 +3322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>14</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>15</v>
       </c>
@@ -3354,7 +3364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>16</v>
       </c>
@@ -3368,7 +3378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>18</v>
       </c>
@@ -3382,7 +3392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>19</v>
       </c>
@@ -3396,7 +3406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>20</v>
       </c>
@@ -3410,7 +3420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>22</v>
       </c>
@@ -3424,7 +3434,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>24</v>
       </c>
@@ -3438,7 +3448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>25</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>27</v>
       </c>
@@ -3466,7 +3476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>28</v>
       </c>
@@ -3480,7 +3490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>30</v>
       </c>
@@ -3494,7 +3504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>32</v>
       </c>
@@ -3508,7 +3518,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>75</v>
       </c>
@@ -3522,7 +3532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>77</v>
       </c>
@@ -3536,7 +3546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>34</v>
       </c>
@@ -3550,7 +3560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>78</v>
       </c>
@@ -3564,7 +3574,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>79</v>
       </c>
@@ -3578,7 +3588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>80</v>
       </c>
@@ -3592,7 +3602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>92</v>
       </c>
@@ -3606,7 +3616,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -3620,7 +3630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>94</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>95</v>
       </c>
@@ -3648,7 +3658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>96</v>
       </c>
@@ -3662,7 +3672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>97</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>4</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>8</v>
       </c>
@@ -3704,7 +3714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>9</v>
       </c>
@@ -3718,7 +3728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>10</v>
       </c>
@@ -3732,7 +3742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>11</v>
       </c>
@@ -3746,7 +3756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>12</v>
       </c>
@@ -3760,7 +3770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>14</v>
       </c>
@@ -3774,7 +3784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>15</v>
       </c>
@@ -3788,7 +3798,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>16</v>
       </c>
@@ -3802,7 +3812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>19</v>
       </c>
@@ -3830,7 +3840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>20</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +3868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>24</v>
       </c>
@@ -3872,7 +3882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>25</v>
       </c>
@@ -3886,7 +3896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>27</v>
       </c>
@@ -3900,7 +3910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>28</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>32</v>
       </c>
@@ -3928,7 +3938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>78</v>
       </c>
@@ -3942,7 +3952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>79</v>
       </c>
@@ -3956,7 +3966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>80</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>15</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>19</v>
       </c>
@@ -3998,7 +4008,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>20</v>
       </c>
@@ -4012,7 +4022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>22</v>
       </c>
@@ -4026,7 +4036,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>24</v>
       </c>
@@ -4040,7 +4050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>25</v>
       </c>
@@ -4054,7 +4064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>27</v>
       </c>
@@ -4068,7 +4078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>28</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>30</v>
       </c>
@@ -4096,7 +4106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>32</v>
       </c>
@@ -4110,7 +4120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>4</v>
       </c>
@@ -4124,7 +4134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>9</v>
       </c>
@@ -4152,7 +4162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>11</v>
       </c>
@@ -4180,7 +4190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>12</v>
       </c>
@@ -4194,7 +4204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>14</v>
       </c>
@@ -4208,7 +4218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>15</v>
       </c>
@@ -4222,7 +4232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>16</v>
       </c>
@@ -4236,7 +4246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>18</v>
       </c>
@@ -4250,7 +4260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>19</v>
       </c>
@@ -4264,7 +4274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>20</v>
       </c>
@@ -4278,7 +4288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>22</v>
       </c>
@@ -4292,7 +4302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>24</v>
       </c>
@@ -4306,7 +4316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>25</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>27</v>
       </c>
@@ -4334,7 +4344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>28</v>
       </c>
@@ -4348,7 +4358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>30</v>
       </c>
@@ -4362,7 +4372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>32</v>
       </c>
@@ -4376,7 +4386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>75</v>
       </c>
@@ -4390,7 +4400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>77</v>
       </c>
@@ -4404,7 +4414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>34</v>
       </c>
@@ -4418,7 +4428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>78</v>
       </c>
@@ -4432,7 +4442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>79</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>80</v>
       </c>
@@ -4460,7 +4470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>92</v>
       </c>
@@ -4474,7 +4484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -4488,7 +4498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>94</v>
       </c>
@@ -4502,7 +4512,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>95</v>
       </c>
@@ -4516,7 +4526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>96</v>
       </c>
@@ -4530,7 +4540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>97</v>
       </c>
@@ -4544,7 +4554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>4</v>
       </c>
@@ -4558,7 +4568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>8</v>
       </c>
@@ -4572,7 +4582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>9</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>10</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>11</v>
       </c>
@@ -4614,7 +4624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>12</v>
       </c>
@@ -4628,7 +4638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>14</v>
       </c>
@@ -4642,7 +4652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>15</v>
       </c>
@@ -4656,7 +4666,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>16</v>
       </c>
@@ -4670,7 +4680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>18</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>19</v>
       </c>
@@ -4698,7 +4708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>20</v>
       </c>
@@ -4712,7 +4722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>22</v>
       </c>
@@ -4726,7 +4736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>24</v>
       </c>
@@ -4740,7 +4750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>25</v>
       </c>
@@ -4754,7 +4764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>27</v>
       </c>
@@ -4768,7 +4778,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>28</v>
       </c>
@@ -4782,7 +4792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>30</v>
       </c>
@@ -4796,7 +4806,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>32</v>
       </c>
@@ -4810,7 +4820,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>19</v>
       </c>
@@ -4824,7 +4834,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>20</v>
       </c>
@@ -4838,7 +4848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>22</v>
       </c>
@@ -4852,7 +4862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>24</v>
       </c>
@@ -4866,7 +4876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>25</v>
       </c>
@@ -4880,7 +4890,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>27</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>28</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>30</v>
       </c>
@@ -4922,7 +4932,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>32</v>
       </c>
@@ -4936,7 +4946,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>15</v>
       </c>
@@ -4950,7 +4960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>16</v>
       </c>
@@ -4964,7 +4974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>18</v>
       </c>
@@ -4978,7 +4988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>19</v>
       </c>
@@ -4992,7 +5002,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>20</v>
       </c>
@@ -5006,7 +5016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>22</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>24</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>25</v>
       </c>
@@ -5048,7 +5058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>27</v>
       </c>
@@ -5062,7 +5072,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>28</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>30</v>
       </c>
@@ -5090,7 +5100,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>32</v>
       </c>
@@ -5104,7 +5114,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>19</v>
       </c>
@@ -5118,7 +5128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>20</v>
       </c>
@@ -5132,7 +5142,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>24</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>25</v>
       </c>
@@ -5174,7 +5184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>27</v>
       </c>
@@ -5188,7 +5198,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>28</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>30</v>
       </c>
@@ -5216,7 +5226,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>32</v>
       </c>
@@ -5230,7 +5240,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>4</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>8</v>
       </c>
@@ -5258,7 +5268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>9</v>
       </c>
@@ -5272,7 +5282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>10</v>
       </c>
@@ -5286,7 +5296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>11</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>12</v>
       </c>
@@ -5314,7 +5324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>14</v>
       </c>
@@ -5328,7 +5338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>15</v>
       </c>
@@ -5342,7 +5352,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>16</v>
       </c>
@@ -5356,7 +5366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>18</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>19</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>20</v>
       </c>
@@ -5398,7 +5408,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>22</v>
       </c>
@@ -5412,7 +5422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>24</v>
       </c>
@@ -5426,7 +5436,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>25</v>
       </c>
@@ -5440,7 +5450,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>27</v>
       </c>
@@ -5454,7 +5464,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>28</v>
       </c>
@@ -5468,7 +5478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>30</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>32</v>
       </c>
@@ -5496,7 +5506,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +5520,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>8</v>
       </c>
@@ -5524,7 +5534,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>9</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>10</v>
       </c>
@@ -5552,7 +5562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>12</v>
       </c>
@@ -5580,7 +5590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>14</v>
       </c>
@@ -5594,7 +5604,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>15</v>
       </c>
@@ -5608,7 +5618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>16</v>
       </c>
@@ -5622,7 +5632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>18</v>
       </c>
@@ -5636,7 +5646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>19</v>
       </c>
@@ -5650,7 +5660,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>20</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>22</v>
       </c>
@@ -5678,7 +5688,878 @@
         <v>118</v>
       </c>
     </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>